--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx; "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx; "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx; "A 29992-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -723,23 +723,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -738,9 +739,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -823,9 +825,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx, "A 30683-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx"; "A 30683-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,29 +719,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx, "A 32699-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx"; "A 32699-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -755,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -806,29 +804,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx, "A 29992-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx"; "A 29992-2023")</t>
-        </is>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -841,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -898,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -955,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1012,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1069,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1126,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx, "A 30683-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx, "A 32699-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx, "A 29992-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 30683-2023.png", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 32699-2023.png", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/kartor/A 29992-2023.png", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_OSTERSUND/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023.xlsx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 30683-2023 artfynd.xlsx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023.png", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 30683-2023 karta.png", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 fsc-klagomål.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 fsc-klagomål mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 30683-2023 tillsynsbegäran.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023.xlsx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 32699-2023 artfynd.xlsx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023.png", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 32699-2023 karta.png", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 fsc-klagomål.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 fsc-klagomål mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 32699-2023 tillsynsbegäran.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,27 +804,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023.xlsx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/artfynd/A 29992-2023 artfynd.xlsx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023.png", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/kartor/A 29992-2023 karta.png", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 fsc-klagomål.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 fsc-klagomål mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsyn/A 29992-2023 tillsynsbegäran.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 fsc-klagomål.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 30683-2023 FSC-klagomål.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 fsc-klagomål mail.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 30683-2023 FSC-klagomål mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 30683-2023 tillsynsbegäran mail.docx", "A 30683-2023")</f>
         <v/>
       </c>
     </row>
@@ -727,11 +727,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 fsc-klagomål.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 32699-2023 FSC-klagomål.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 fsc-klagomål mail.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 32699-2023 FSC-klagomål mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -739,7 +739,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 32699-2023 tillsynsbegäran mail.docx", "A 32699-2023")</f>
         <v/>
       </c>
     </row>
@@ -812,11 +812,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 fsc-klagomål.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomål/A 29992-2023 FSC-klagomål.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 fsc-klagomål mail.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/klagomålsmail/A 29992-2023 FSC-klagomål mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -824,7 +824,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/ti,llsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2380/tillsynsmail/A 29992-2023 tillsynsbegäran mail.docx", "A 29992-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/Översikt ÖSTERSUND.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45121</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45112</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45118</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45118</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45121</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
